--- a/web/files/result_users.xlsx
+++ b/web/files/result_users.xlsx
@@ -376,7 +376,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -386,9 +386,12 @@
         <v>姓名</v>
       </c>
       <c r="B1" t="str">
+        <v>PSID</v>
+      </c>
+      <c r="C1" t="str">
         <v>number</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>AFID</v>
       </c>
     </row>
@@ -397,32 +400,41 @@
         <v>yang</v>
       </c>
       <c r="B2" t="str">
-        <v>666</v>
+        <v>123</v>
       </c>
       <c r="C2" t="str">
-        <v>e004015060282ca1</v>
+        <v>23</v>
+      </c>
+      <c r="D2" t="str">
+        <v>iefue</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>yang2</v>
+        <v>yang4</v>
       </c>
       <c r="B3" t="str">
-        <v>56</v>
+        <v>456</v>
       </c>
       <c r="C3" t="str">
-        <v>e0040150602792d6</v>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>ifewufjsdjfs</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>yang4</v>
+        <v>yang2</v>
       </c>
       <c r="B4" t="str">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="C4" t="str">
-        <v>e00401506026d8a3</v>
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>dfsdfsdf</v>
       </c>
     </row>
     <row r="5">
@@ -430,10 +442,66 @@
         <v>yang3</v>
       </c>
       <c r="B5" t="str">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C5" t="str">
-        <v>e00401506028363f</v>
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>dsfsewfdf</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>yang7</v>
+      </c>
+      <c r="B6" t="str">
+        <v>217</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>gdsgsde</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>yang5</v>
+      </c>
+      <c r="B7" t="str">
+        <v>432</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>fewdifdfd</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>yang6</v>
+      </c>
+      <c r="B8" t="str">
+        <v>245</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>nvbfjfds</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>yang8</v>
+      </c>
+      <c r="B9" t="str">
+        <v>897</v>
+      </c>
+      <c r="D9" t="str">
+        <v>N/A</v>
       </c>
     </row>
   </sheetData>

--- a/web/files/result_users.xlsx
+++ b/web/files/result_users.xlsx
@@ -376,22 +376,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="sheet1"/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>姓名</v>
+        <v>英文名</v>
       </c>
       <c r="B1" t="str">
+        <v>中文名</v>
+      </c>
+      <c r="C1" t="str">
         <v>PSID</v>
       </c>
-      <c r="C1" t="str">
+      <c r="D1" t="str">
         <v>number</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>AFID</v>
       </c>
     </row>
@@ -400,55 +403,55 @@
         <v>yang</v>
       </c>
       <c r="B2" t="str">
-        <v>123</v>
+        <v>杨1</v>
       </c>
       <c r="C2" t="str">
-        <v>23</v>
-      </c>
-      <c r="D2" t="str">
-        <v>iefue</v>
+        <v>213</v>
+      </c>
+      <c r="E2" t="str">
+        <v>N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>yang4</v>
+        <v>yang2</v>
       </c>
       <c r="B3" t="str">
-        <v>456</v>
+        <v>杨2</v>
       </c>
       <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v>ifewufjsdjfs</v>
+        <v>567</v>
+      </c>
+      <c r="E3" t="str">
+        <v>dfsdfsdf</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>yang2</v>
+        <v>yang3</v>
       </c>
       <c r="B4" t="str">
-        <v>234</v>
+        <v>杨3</v>
       </c>
       <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v>dfsdfsdf</v>
+        <v>345</v>
+      </c>
+      <c r="E4" t="str">
+        <v>iefue</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>yang3</v>
+        <v>yang4</v>
       </c>
       <c r="B5" t="str">
-        <v>213</v>
+        <v>杨4</v>
       </c>
       <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v>dsfsewfdf</v>
+        <v>343</v>
+      </c>
+      <c r="E5" t="str">
+        <v>fewdifdfd</v>
       </c>
     </row>
     <row r="6">
@@ -456,52 +459,55 @@
         <v>yang7</v>
       </c>
       <c r="B6" t="str">
-        <v>217</v>
+        <v>杨7</v>
       </c>
       <c r="C6" t="str">
-        <v/>
-      </c>
-      <c r="D6" t="str">
-        <v>gdsgsde</v>
+        <v>890</v>
+      </c>
+      <c r="E6" t="str">
+        <v>dsfsewfdf</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>yang5</v>
+        <v>yang8</v>
       </c>
       <c r="B7" t="str">
-        <v>432</v>
+        <v>杨8</v>
       </c>
       <c r="C7" t="str">
-        <v/>
-      </c>
-      <c r="D7" t="str">
-        <v>fewdifdfd</v>
+        <v>543</v>
+      </c>
+      <c r="E7" t="str">
+        <v>gdsgsde</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>yang6</v>
+        <v>yang5</v>
       </c>
       <c r="B8" t="str">
-        <v>245</v>
+        <v>杨5</v>
       </c>
       <c r="C8" t="str">
-        <v/>
-      </c>
-      <c r="D8" t="str">
+        <v>367</v>
+      </c>
+      <c r="E8" t="str">
         <v>nvbfjfds</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>yang8</v>
+        <v>yang6</v>
       </c>
       <c r="B9" t="str">
-        <v>897</v>
-      </c>
-      <c r="D9" t="str">
-        <v>N/A</v>
+        <v>杨6</v>
+      </c>
+      <c r="C9" t="str">
+        <v>987</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ifewufjsdjfs</v>
       </c>
     </row>
   </sheetData>
